--- a/LF/PreTAS/Senegal/aout 2021/sn_lf_pretas_3_fts_result_202107.xlsx
+++ b/LF/PreTAS/Senegal/aout 2021/sn_lf_pretas_3_fts_result_202107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\july 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\aout 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A45E2-3427-4D86-95DE-5BFBFE9FD82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB79CA3-782E-4DB5-9CF1-4D1FCA4EAC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -772,12 +772,6 @@
     <t>Thiès</t>
   </si>
   <si>
-    <t>(Juillet 2021) 3. Pre-TAS FL Résultat FTS V2</t>
-  </si>
-  <si>
-    <t>bj_lf_pretas_3_fts_result_202107_v2</t>
-  </si>
-  <si>
     <t>Allada</t>
   </si>
   <si>
@@ -803,6 +797,12 @@
   </si>
   <si>
     <t>region_list = ${d_region}</t>
+  </si>
+  <si>
+    <t>(Août 2021) 3. Pre-TAS FL Résultat FTS</t>
+  </si>
+  <si>
+    <t>bj_lf_pretas_3_fts_result_202108</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1514,17 +1514,17 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="56"/>
@@ -1567,7 +1567,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4689,7 +4689,7 @@
         <v>114</v>
       </c>
       <c r="E141" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G141" t="s">
         <v>201</v>
@@ -4709,7 +4709,7 @@
         <v>107</v>
       </c>
       <c r="E142" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G142" t="s">
         <v>202</v>
@@ -4729,7 +4729,7 @@
         <v>106</v>
       </c>
       <c r="E143" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G143" t="s">
         <v>203</v>
@@ -4749,7 +4749,7 @@
         <v>111</v>
       </c>
       <c r="E144" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G144" t="s">
         <v>204</v>
@@ -4821,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -4848,10 +4848,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C2">
         <v>20210722</v>
